--- a/RTO Template.xlsx
+++ b/RTO Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivarajmb/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325C5C36-BD79-0C4A-ABFC-67F1F8C0F3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017358C6-3CF1-E44B-8AC1-5598030B2952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>SR Amount</t>
+  </si>
+  <si>
+    <t>SU No</t>
   </si>
 </sst>
 </file>
@@ -426,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G2" sqref="A2:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -442,7 +445,7 @@
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -464,15 +467,57 @@
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RTO Template.xlsx
+++ b/RTO Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivarajmb/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017358C6-3CF1-E44B-8AC1-5598030B2952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335E4EE5-9C05-1D4B-A044-184C232085B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="20740" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -63,13 +63,19 @@
   </si>
   <si>
     <t>SU No</t>
+  </si>
+  <si>
+    <t>Handled By</t>
+  </si>
+  <si>
+    <t>SU Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,8 +83,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,8 +114,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -106,15 +129,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,95 +485,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="A2:G17"/>
+      <selection activeCell="J2" sqref="A2:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
+      <c r="I1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
